--- a/statespace.xlsx
+++ b/statespace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>bezet</t>
   </si>
@@ -27,6 +27,30 @@
   </si>
   <si>
     <t>percentage vrij</t>
+  </si>
+  <si>
+    <t>som</t>
+  </si>
+  <si>
+    <t>n!</t>
+  </si>
+  <si>
+    <t>k!</t>
+  </si>
+  <si>
+    <t>(n-k)!</t>
+  </si>
+  <si>
+    <t>k! * (n-k)!</t>
+  </si>
+  <si>
+    <t>n = som</t>
+  </si>
+  <si>
+    <t>k = bezet</t>
+  </si>
+  <si>
+    <t>n! / (k! * (n-k)!)</t>
   </si>
 </sst>
 </file>
@@ -375,15 +399,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -393,11 +424,29 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -408,12 +457,36 @@
         <f>36-C2</f>
         <v>15</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E2">
+        <f>D2+C2</f>
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <f>FACT(E2)</f>
+        <v>3.7199332678990133E+41</v>
+      </c>
+      <c r="H2">
+        <f>FACT(C2)</f>
+        <v>5.109094217170944E+19</v>
+      </c>
+      <c r="I2">
+        <f>FACT(D2)</f>
+        <v>1307674368000</v>
+      </c>
+      <c r="J2">
+        <f>H2*I2</f>
+        <v>6.681031551491469E+31</v>
+      </c>
+      <c r="L2">
+        <f>G2/J2</f>
+        <v>5567902560.0000019</v>
+      </c>
+      <c r="N2" s="1">
         <f>D2/(C2+D2)</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -424,12 +497,36 @@
         <f t="shared" ref="D3:D4" si="0">36-C3</f>
         <v>9</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F9" si="1">D3/(C3+D3)</f>
+      <c r="E3">
+        <f>D3+C3</f>
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="1">FACT(E3)</f>
+        <v>3.7199332678990133E+41</v>
+      </c>
+      <c r="H3">
+        <f>FACT(C3)</f>
+        <v>1.0888869450418352E+28</v>
+      </c>
+      <c r="I3">
+        <f>FACT(D3)</f>
+        <v>362880</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="2">H3*I3</f>
+        <v>3.9513529461678118E+33</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="3">G3/J3</f>
+        <v>94143280.00000003</v>
+      </c>
+      <c r="N3" s="1">
+        <f>D3/(C3+D3)</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -440,12 +537,36 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4">
+        <f>D4+C4</f>
+        <v>36</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="1"/>
+        <v>3.7199332678990133E+41</v>
+      </c>
+      <c r="H4">
+        <f>FACT(C4)</f>
+        <v>1.0888869450418352E+28</v>
+      </c>
+      <c r="I4">
+        <f>FACT(D4)</f>
+        <v>362880</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>3.9513529461678118E+33</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>94143280.00000003</v>
+      </c>
+      <c r="N4" s="1">
+        <f>D4/(C4+D4)</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -456,12 +577,36 @@
         <f>81-C5</f>
         <v>27</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5">
+        <f>D5+C5</f>
+        <v>81</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
+        <v>5.797126020747369E+120</v>
+      </c>
+      <c r="H5">
+        <f>FACT(C5)</f>
+        <v>2.3084369733924128E+71</v>
+      </c>
+      <c r="I5">
+        <f>FACT(D5)</f>
+        <v>1.0888869450418352E+28</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>2.5136268837788844E+99</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>2.3062794475018526E+21</v>
+      </c>
+      <c r="N5" s="1">
+        <f>D5/(C5+D5)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -469,15 +614,39 @@
         <v>54</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D7" si="2">81-C6</f>
+        <f t="shared" ref="D6:D7" si="4">81-C6</f>
         <v>27</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E6">
+        <f>D6+C6</f>
+        <v>81</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
+        <v>5.797126020747369E+120</v>
+      </c>
+      <c r="H6">
+        <f>FACT(C6)</f>
+        <v>2.3084369733924128E+71</v>
+      </c>
+      <c r="I6">
+        <f>FACT(D6)</f>
+        <v>1.0888869450418352E+28</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>2.5136268837788844E+99</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>2.3062794475018526E+21</v>
+      </c>
+      <c r="N6" s="1">
+        <f>D6/(C6+D6)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -485,15 +654,39 @@
         <v>60</v>
       </c>
       <c r="D7">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <f>D7+C7</f>
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>5.797126020747369E+120</v>
+      </c>
+      <c r="H7">
+        <f>FACT(C7)</f>
+        <v>8.3209871127413899E+81</v>
+      </c>
+      <c r="I7">
+        <f>FACT(D7)</f>
+        <v>5.109094217170944E+19</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <v>4.2512707138860986E+101</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>1.3636219405675532E+19</v>
+      </c>
+      <c r="N7" s="1">
+        <f>D7/(C7+D7)</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -504,12 +697,36 @@
         <f>144-C8</f>
         <v>40</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8">
+        <f>D8+C8</f>
+        <v>144</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
+        <v>5.5502938327393076E+249</v>
+      </c>
+      <c r="H8">
+        <f>FACT(C8)</f>
+        <v>1.0299016745145631E+166</v>
+      </c>
+      <c r="I8">
+        <f>FACT(D8)</f>
+        <v>8.1591528324789801E+47</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>8.403125164790342E+213</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>6.605035298052457E+35</v>
+      </c>
+      <c r="N8" s="1">
+        <f>D8/(C8+D8)</f>
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -520,9 +737,404 @@
         <f>36-C9</f>
         <v>28</v>
       </c>
-      <c r="F9" s="1">
+      <c r="E9">
+        <f>D9+C9</f>
+        <v>36</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
+        <v>3.7199332678990133E+41</v>
+      </c>
+      <c r="H9">
+        <f>FACT(C9)</f>
+        <v>40320</v>
+      </c>
+      <c r="I9">
+        <f>FACT(D9)</f>
+        <v>3.048883446117138E+29</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1.2293098054744301E+34</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>30260340.000000015</v>
+      </c>
+      <c r="N9" s="1">
+        <f>D9/(C9+D9)</f>
         <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <f>36-C18</f>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>34</v>
+      </c>
+      <c r="G18">
+        <f>FACT(E18)</f>
+        <v>2.9523279903960408E+38</v>
+      </c>
+      <c r="H18">
+        <f>FACT(C18)</f>
+        <v>5.109094217170944E+19</v>
+      </c>
+      <c r="I18">
+        <f>FACT(D18)</f>
+        <v>1307674368000</v>
+      </c>
+      <c r="J18">
+        <f>H18*I18</f>
+        <v>6.681031551491469E+31</v>
+      </c>
+      <c r="L18">
+        <f>G18/J18</f>
+        <v>4418970.2857142845</v>
+      </c>
+      <c r="N18" s="1">
+        <f>D18/(C18+D18)</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D20" si="5">36-C19</f>
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <f>D19+C19</f>
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G25" si="6">FACT(E19)</f>
+        <v>3.7199332678990133E+41</v>
+      </c>
+      <c r="H19">
+        <f>FACT(C19)</f>
+        <v>1.0888869450418352E+28</v>
+      </c>
+      <c r="I19">
+        <f>FACT(D19)</f>
+        <v>362880</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J25" si="7">H19*I19</f>
+        <v>3.9513529461678118E+33</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L25" si="8">G19/J19</f>
+        <v>94143280.00000003</v>
+      </c>
+      <c r="N19" s="1">
+        <f>D19/(C19+D19)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <f>D20+C20</f>
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>3.7199332678990133E+41</v>
+      </c>
+      <c r="H20">
+        <f>FACT(C20)</f>
+        <v>1.0888869450418352E+28</v>
+      </c>
+      <c r="I20">
+        <f>FACT(D20)</f>
+        <v>362880</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>3.9513529461678118E+33</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>94143280.00000003</v>
+      </c>
+      <c r="N20" s="1">
+        <f>D20/(C20+D20)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <f>81-C21</f>
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <f>D21+C21</f>
+        <v>81</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>5.797126020747369E+120</v>
+      </c>
+      <c r="H21">
+        <f>FACT(C21)</f>
+        <v>2.3084369733924128E+71</v>
+      </c>
+      <c r="I21">
+        <f>FACT(D21)</f>
+        <v>1.0888869450418352E+28</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>2.5136268837788844E+99</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>2.3062794475018526E+21</v>
+      </c>
+      <c r="N21" s="1">
+        <f>D21/(C21+D21)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D23" si="9">81-C22</f>
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <f>D22+C22</f>
+        <v>81</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>5.797126020747369E+120</v>
+      </c>
+      <c r="H22">
+        <f>FACT(C22)</f>
+        <v>2.3084369733924128E+71</v>
+      </c>
+      <c r="I22">
+        <f>FACT(D22)</f>
+        <v>1.0888869450418352E+28</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>2.5136268837788844E+99</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="8"/>
+        <v>2.3062794475018526E+21</v>
+      </c>
+      <c r="N22" s="1">
+        <f>D22/(C22+D22)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <f>D23+C23</f>
+        <v>81</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>5.797126020747369E+120</v>
+      </c>
+      <c r="H23">
+        <f>FACT(C23)</f>
+        <v>8.3209871127413899E+81</v>
+      </c>
+      <c r="I23">
+        <f>FACT(D23)</f>
+        <v>5.109094217170944E+19</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>4.2512707138860986E+101</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="8"/>
+        <v>1.3636219405675532E+19</v>
+      </c>
+      <c r="N23" s="1">
+        <f>D23/(C23+D23)</f>
+        <v>0.25925925925925924</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>104</v>
+      </c>
+      <c r="D24">
+        <f>144-C24</f>
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <f>D24+C24</f>
+        <v>144</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>5.5502938327393076E+249</v>
+      </c>
+      <c r="H24">
+        <f>FACT(C24)</f>
+        <v>1.0299016745145631E+166</v>
+      </c>
+      <c r="I24">
+        <f>FACT(D24)</f>
+        <v>8.1591528324789801E+47</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>8.403125164790342E+213</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>6.605035298052457E+35</v>
+      </c>
+      <c r="N24" s="1">
+        <f>D24/(C24+D24)</f>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <f>36-C25</f>
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <f>D25+C25</f>
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>3.7199332678990133E+41</v>
+      </c>
+      <c r="H25">
+        <f>FACT(C25)</f>
+        <v>40320</v>
+      </c>
+      <c r="I25">
+        <f>FACT(D25)</f>
+        <v>3.048883446117138E+29</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>1.2293098054744301E+34</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>30260340.000000015</v>
+      </c>
+      <c r="N25" s="1">
+        <f>D25/(C25+D25)</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/statespace.xlsx
+++ b/statespace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="24240" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -402,7 +402,7 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="L2" sqref="L2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <f>D2+C2</f>
+        <f t="shared" ref="E2:E9" si="0">D2+C2</f>
         <v>36</v>
       </c>
       <c r="G2">
@@ -466,11 +466,11 @@
         <v>3.7199332678990133E+41</v>
       </c>
       <c r="H2">
-        <f>FACT(C2)</f>
+        <f t="shared" ref="H2:I9" si="1">FACT(C2)</f>
         <v>5.109094217170944E+19</v>
       </c>
       <c r="I2">
-        <f>FACT(D2)</f>
+        <f t="shared" si="1"/>
         <v>1307674368000</v>
       </c>
       <c r="J2">
@@ -482,7 +482,7 @@
         <v>5567902560.0000019</v>
       </c>
       <c r="N2" s="1">
-        <f>D2/(C2+D2)</f>
+        <f t="shared" ref="N2:N9" si="2">D2/(C2+D2)</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -494,35 +494,35 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D4" si="0">36-C3</f>
+        <f t="shared" ref="D3:D4" si="3">36-C3</f>
         <v>9</v>
       </c>
       <c r="E3">
-        <f>D3+C3</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G9" si="1">FACT(E3)</f>
+        <f t="shared" ref="G3:G9" si="4">FACT(E3)</f>
         <v>3.7199332678990133E+41</v>
       </c>
       <c r="H3">
-        <f>FACT(C3)</f>
+        <f t="shared" si="1"/>
         <v>1.0888869450418352E+28</v>
       </c>
       <c r="I3">
-        <f>FACT(D3)</f>
+        <f t="shared" si="1"/>
         <v>362880</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" si="2">H3*I3</f>
+        <f t="shared" ref="J3:J9" si="5">H3*I3</f>
         <v>3.9513529461678118E+33</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L9" si="3">G3/J3</f>
+        <f t="shared" ref="L3:L9" si="6">G3/J3</f>
         <v>94143280.00000003</v>
       </c>
       <c r="N3" s="1">
-        <f>D3/(C3+D3)</f>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
@@ -534,35 +534,35 @@
         <v>27</v>
       </c>
       <c r="D4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <f>D4+C4</f>
         <v>36</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.7199332678990133E+41</v>
       </c>
       <c r="H4">
-        <f>FACT(C4)</f>
+        <f t="shared" si="1"/>
         <v>1.0888869450418352E+28</v>
       </c>
       <c r="I4">
-        <f>FACT(D4)</f>
+        <f t="shared" si="1"/>
         <v>362880</v>
       </c>
       <c r="J4">
+        <f t="shared" si="5"/>
+        <v>3.9513529461678118E+33</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>94143280.00000003</v>
+      </c>
+      <c r="N4" s="1">
         <f t="shared" si="2"/>
-        <v>3.9513529461678118E+33</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="3"/>
-        <v>94143280.00000003</v>
-      </c>
-      <c r="N4" s="1">
-        <f>D4/(C4+D4)</f>
         <v>0.25</v>
       </c>
     </row>
@@ -578,31 +578,31 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <f>D5+C5</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.797126020747369E+120</v>
       </c>
       <c r="H5">
-        <f>FACT(C5)</f>
+        <f t="shared" si="1"/>
         <v>2.3084369733924128E+71</v>
       </c>
       <c r="I5">
-        <f>FACT(D5)</f>
+        <f t="shared" si="1"/>
         <v>1.0888869450418352E+28</v>
       </c>
       <c r="J5">
+        <f t="shared" si="5"/>
+        <v>2.5136268837788844E+99</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>2.3062794475018526E+21</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="2"/>
-        <v>2.5136268837788844E+99</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="3"/>
-        <v>2.3062794475018526E+21</v>
-      </c>
-      <c r="N5" s="1">
-        <f>D5/(C5+D5)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -614,35 +614,35 @@
         <v>54</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D7" si="4">81-C6</f>
+        <f t="shared" ref="D6:D7" si="7">81-C6</f>
         <v>27</v>
       </c>
       <c r="E6">
-        <f>D6+C6</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.797126020747369E+120</v>
       </c>
       <c r="H6">
-        <f>FACT(C6)</f>
+        <f t="shared" si="1"/>
         <v>2.3084369733924128E+71</v>
       </c>
       <c r="I6">
-        <f>FACT(D6)</f>
+        <f t="shared" si="1"/>
         <v>1.0888869450418352E+28</v>
       </c>
       <c r="J6">
+        <f t="shared" si="5"/>
+        <v>2.5136268837788844E+99</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>2.3062794475018526E+21</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>2.5136268837788844E+99</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="3"/>
-        <v>2.3062794475018526E+21</v>
-      </c>
-      <c r="N6" s="1">
-        <f>D6/(C6+D6)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -654,35 +654,35 @@
         <v>60</v>
       </c>
       <c r="D7">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <f>D7+C7</f>
-        <v>81</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
         <v>5.797126020747369E+120</v>
       </c>
       <c r="H7">
-        <f>FACT(C7)</f>
+        <f t="shared" si="1"/>
         <v>8.3209871127413899E+81</v>
       </c>
       <c r="I7">
-        <f>FACT(D7)</f>
+        <f t="shared" si="1"/>
         <v>5.109094217170944E+19</v>
       </c>
       <c r="J7">
+        <f t="shared" si="5"/>
+        <v>4.2512707138860986E+101</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>1.3636219405675532E+19</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="2"/>
-        <v>4.2512707138860986E+101</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
-        <v>1.3636219405675532E+19</v>
-      </c>
-      <c r="N7" s="1">
-        <f>D7/(C7+D7)</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
@@ -698,31 +698,31 @@
         <v>40</v>
       </c>
       <c r="E8">
-        <f>D8+C8</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5502938327393076E+249</v>
       </c>
       <c r="H8">
-        <f>FACT(C8)</f>
+        <f t="shared" si="1"/>
         <v>1.0299016745145631E+166</v>
       </c>
       <c r="I8">
-        <f>FACT(D8)</f>
+        <f t="shared" si="1"/>
         <v>8.1591528324789801E+47</v>
       </c>
       <c r="J8">
+        <f t="shared" si="5"/>
+        <v>8.403125164790342E+213</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>6.605035298052457E+35</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="2"/>
-        <v>8.403125164790342E+213</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="3"/>
-        <v>6.605035298052457E+35</v>
-      </c>
-      <c r="N8" s="1">
-        <f>D8/(C8+D8)</f>
         <v>0.27777777777777779</v>
       </c>
     </row>
@@ -738,31 +738,31 @@
         <v>28</v>
       </c>
       <c r="E9">
-        <f>D9+C9</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.7199332678990133E+41</v>
       </c>
       <c r="H9">
-        <f>FACT(C9)</f>
+        <f t="shared" si="1"/>
         <v>40320</v>
       </c>
       <c r="I9">
-        <f>FACT(D9)</f>
+        <f t="shared" si="1"/>
         <v>3.048883446117138E+29</v>
       </c>
       <c r="J9">
+        <f t="shared" si="5"/>
+        <v>1.2293098054744301E+34</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>30260340.000000015</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" si="2"/>
-        <v>1.2293098054744301E+34</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="3"/>
-        <v>30260340.000000015</v>
-      </c>
-      <c r="N9" s="1">
-        <f>D9/(C9+D9)</f>
         <v>0.77777777777777779</v>
       </c>
     </row>
@@ -827,11 +827,11 @@
         <v>2.9523279903960408E+38</v>
       </c>
       <c r="H18">
-        <f>FACT(C18)</f>
+        <f t="shared" ref="H18:I25" si="8">FACT(C18)</f>
         <v>5.109094217170944E+19</v>
       </c>
       <c r="I18">
-        <f>FACT(D18)</f>
+        <f t="shared" si="8"/>
         <v>1307674368000</v>
       </c>
       <c r="J18">
@@ -843,7 +843,7 @@
         <v>4418970.2857142845</v>
       </c>
       <c r="N18" s="1">
-        <f>D18/(C18+D18)</f>
+        <f t="shared" ref="N18:N25" si="9">D18/(C18+D18)</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
@@ -855,35 +855,35 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D20" si="5">36-C19</f>
+        <f t="shared" ref="D19:D20" si="10">36-C19</f>
         <v>9</v>
       </c>
       <c r="E19">
-        <f>D19+C19</f>
+        <f t="shared" ref="E19:E25" si="11">D19+C19</f>
         <v>36</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G25" si="6">FACT(E19)</f>
+        <f t="shared" ref="G19:G25" si="12">FACT(E19)</f>
         <v>3.7199332678990133E+41</v>
       </c>
       <c r="H19">
-        <f>FACT(C19)</f>
+        <f t="shared" si="8"/>
         <v>1.0888869450418352E+28</v>
       </c>
       <c r="I19">
-        <f>FACT(D19)</f>
+        <f t="shared" si="8"/>
         <v>362880</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J25" si="7">H19*I19</f>
+        <f t="shared" ref="J19:J25" si="13">H19*I19</f>
         <v>3.9513529461678118E+33</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L25" si="8">G19/J19</f>
+        <f t="shared" ref="L19:L25" si="14">G19/J19</f>
         <v>94143280.00000003</v>
       </c>
       <c r="N19" s="1">
-        <f>D19/(C19+D19)</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
     </row>
@@ -895,35 +895,35 @@
         <v>27</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="E20">
-        <f>D20+C20</f>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.7199332678990133E+41</v>
       </c>
       <c r="H20">
-        <f>FACT(C20)</f>
+        <f t="shared" si="8"/>
         <v>1.0888869450418352E+28</v>
       </c>
       <c r="I20">
-        <f>FACT(D20)</f>
+        <f t="shared" si="8"/>
         <v>362880</v>
       </c>
       <c r="J20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.9513529461678118E+33</v>
       </c>
       <c r="L20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>94143280.00000003</v>
       </c>
       <c r="N20" s="1">
-        <f>D20/(C20+D20)</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
     </row>
@@ -939,31 +939,31 @@
         <v>27</v>
       </c>
       <c r="E21">
-        <f>D21+C21</f>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.797126020747369E+120</v>
       </c>
       <c r="H21">
-        <f>FACT(C21)</f>
+        <f t="shared" si="8"/>
         <v>2.3084369733924128E+71</v>
       </c>
       <c r="I21">
-        <f>FACT(D21)</f>
+        <f t="shared" si="8"/>
         <v>1.0888869450418352E+28</v>
       </c>
       <c r="J21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.5136268837788844E+99</v>
       </c>
       <c r="L21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.3062794475018526E+21</v>
       </c>
       <c r="N21" s="1">
-        <f>D21/(C21+D21)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -975,35 +975,35 @@
         <v>54</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:D23" si="9">81-C22</f>
+        <f t="shared" ref="D22:D23" si="15">81-C22</f>
         <v>27</v>
       </c>
       <c r="E22">
-        <f>D22+C22</f>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.797126020747369E+120</v>
       </c>
       <c r="H22">
-        <f>FACT(C22)</f>
+        <f t="shared" si="8"/>
         <v>2.3084369733924128E+71</v>
       </c>
       <c r="I22">
-        <f>FACT(D22)</f>
+        <f t="shared" si="8"/>
         <v>1.0888869450418352E+28</v>
       </c>
       <c r="J22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>2.5136268837788844E+99</v>
       </c>
       <c r="L22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2.3062794475018526E+21</v>
       </c>
       <c r="N22" s="1">
-        <f>D22/(C22+D22)</f>
+        <f t="shared" si="9"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1015,35 +1015,35 @@
         <v>60</v>
       </c>
       <c r="D23">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="12"/>
+        <v>5.797126020747369E+120</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>8.3209871127413899E+81</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>5.109094217170944E+19</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="13"/>
+        <v>4.2512707138860986E+101</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="14"/>
+        <v>1.3636219405675532E+19</v>
+      </c>
+      <c r="N23" s="1">
         <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <f>D23+C23</f>
-        <v>81</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
-        <v>5.797126020747369E+120</v>
-      </c>
-      <c r="H23">
-        <f>FACT(C23)</f>
-        <v>8.3209871127413899E+81</v>
-      </c>
-      <c r="I23">
-        <f>FACT(D23)</f>
-        <v>5.109094217170944E+19</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="7"/>
-        <v>4.2512707138860986E+101</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="8"/>
-        <v>1.3636219405675532E+19</v>
-      </c>
-      <c r="N23" s="1">
-        <f>D23/(C23+D23)</f>
         <v>0.25925925925925924</v>
       </c>
     </row>
@@ -1059,31 +1059,31 @@
         <v>40</v>
       </c>
       <c r="E24">
-        <f>D24+C24</f>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.5502938327393076E+249</v>
       </c>
       <c r="H24">
-        <f>FACT(C24)</f>
+        <f t="shared" si="8"/>
         <v>1.0299016745145631E+166</v>
       </c>
       <c r="I24">
-        <f>FACT(D24)</f>
+        <f t="shared" si="8"/>
         <v>8.1591528324789801E+47</v>
       </c>
       <c r="J24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>8.403125164790342E+213</v>
       </c>
       <c r="L24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6.605035298052457E+35</v>
       </c>
       <c r="N24" s="1">
-        <f>D24/(C24+D24)</f>
+        <f t="shared" si="9"/>
         <v>0.27777777777777779</v>
       </c>
     </row>
@@ -1099,31 +1099,31 @@
         <v>28</v>
       </c>
       <c r="E25">
-        <f>D25+C25</f>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.7199332678990133E+41</v>
       </c>
       <c r="H25">
-        <f>FACT(C25)</f>
+        <f t="shared" si="8"/>
         <v>40320</v>
       </c>
       <c r="I25">
-        <f>FACT(D25)</f>
+        <f t="shared" si="8"/>
         <v>3.048883446117138E+29</v>
       </c>
       <c r="J25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.2293098054744301E+34</v>
       </c>
       <c r="L25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>30260340.000000015</v>
       </c>
       <c r="N25" s="1">
-        <f>D25/(C25+D25)</f>
+        <f t="shared" si="9"/>
         <v>0.77777777777777779</v>
       </c>
     </row>
